--- a/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>EDBL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
         <v>2800</v>
       </c>
       <c r="F9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,17 +788,17 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,22 +886,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -898,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,25 +993,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1100</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-1100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1041,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,25 +1103,28 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1095,25 +1135,28 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
       </c>
       <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-1200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1167,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,25 +1231,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
       </c>
       <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-1200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1211,25 +1263,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
       </c>
       <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>-1200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1423,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,25 +1455,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
       </c>
       <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>-1200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,25 +1519,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
       </c>
       <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>-1200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1618,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1599,11 +1692,11 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,8 +1726,8 @@
       <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1648,19 +1744,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,8 +1982,8 @@
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2094,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,20 +2124,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2220,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2120,8 +2266,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,25 +2783,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
       </c>
       <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>-1200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,8 +2849,8 @@
       <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3021,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,13 +3069,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2866,8 +3087,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,13 +3163,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2953,8 +3183,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,26 +3337,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,25 +3401,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>EDBL</t>
   </si>
@@ -894,8 +894,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
@@ -969,8 +969,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>4500</v>
       </c>
       <c r="E17" s="3">
         <v>6300</v>
@@ -1001,8 +1001,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-1700</v>
       </c>
       <c r="E18" s="3">
         <v>-3300</v>
@@ -1047,8 +1047,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
@@ -1079,8 +1079,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1800</v>
       </c>
       <c r="E21" s="3">
         <v>-3300</v>
@@ -1143,8 +1143,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
         <v>-4800</v>
@@ -1239,8 +1239,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2100</v>
       </c>
       <c r="E26" s="3">
         <v>-4800</v>
@@ -1271,8 +1271,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2100</v>
       </c>
       <c r="E27" s="3">
         <v>-4800</v>
@@ -1431,8 +1431,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -1463,8 +1463,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2100</v>
       </c>
       <c r="E33" s="3">
         <v>-4800</v>
@@ -1527,8 +1527,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2100</v>
       </c>
       <c r="E35" s="3">
         <v>-4800</v>
@@ -2132,8 +2132,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
@@ -2791,8 +2791,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2100</v>
       </c>
       <c r="E81" s="3">
         <v>-4800</v>
@@ -3029,8 +3029,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
         <v>-4300</v>
@@ -3171,8 +3171,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1800</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3345,8 +3345,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>10000</v>

--- a/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>EDBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,29 +715,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,29 +750,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2800</v>
       </c>
       <c r="F9" s="3">
         <v>2800</v>
       </c>
       <c r="G9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,29 +785,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,16 +917,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -921,8 +940,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,29 +989,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -996,28 +1022,31 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1100</v>
       </c>
       <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-1100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,28 +1074,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1074,29 +1107,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,28 +1142,31 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1138,28 +1177,31 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-1200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-1200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1266,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-1200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,28 +1492,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1458,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1200</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-1200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1200</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-1200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1554,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,22 +1704,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1651,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1772,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,13 +1807,16 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -1729,8 +1824,8 @@
       <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1842,25 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1779,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,23 +1947,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,31 +1982,34 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1907,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,8 +2104,8 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2157,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,23 +2257,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,23 +2292,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2327,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2232,14 +2374,14 @@
         <v>4300</v>
       </c>
       <c r="E61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2255,13 +2397,16 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2269,8 +2414,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2537,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2727,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2867,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2786,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1200</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-1200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,13 +3029,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -2852,8 +3050,8 @@
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,29 +3237,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,17 +3289,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3090,11 +3310,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,17 +3392,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3186,8 +3415,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3349,20 +3594,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,28 +3652,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3434,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>EDBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,192 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,31 +942,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -943,8 +983,14 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3300</v>
       </c>
       <c r="G18" s="3">
         <v>-1700</v>
       </c>
       <c r="H18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,34 +1141,36 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,69 +1178,81 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1180,43 +1260,55 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1342,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,34 +1629,40 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,43 +1670,55 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,28 +1877,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1740,8 +1914,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,29 +1955,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,28 +1996,34 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1845,13 +2037,19 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -1860,13 +2058,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1880,29 +2078,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2119,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,8 +2160,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1962,17 +2178,17 @@
         <v>5100</v>
       </c>
       <c r="F48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,20 +2201,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,17 +2233,23 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,16 +2324,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2107,11 +2347,11 @@
       <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2365,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,29 +2406,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F54" s="3">
         <v>7000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2447,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,29 +2485,31 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,29 +2522,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,28 +2563,34 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2330,29 +2604,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,29 +2645,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E61" s="3">
         <v>4300</v>
       </c>
       <c r="F61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2686,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2409,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2727,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,29 +2850,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2891,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,29 +3072,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +3113,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,29 +3236,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3277,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,10 +3437,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3053,11 +3451,11 @@
       <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3463,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3730,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3299,14 +3741,14 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3316,17 +3758,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3849,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3404,25 +3864,25 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3890,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>EDBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,38 +727,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,38 +771,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2800</v>
       </c>
       <c r="I9" s="3">
         <v>2800</v>
       </c>
       <c r="J9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +815,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,34 +965,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,37 +1112,40 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1100</v>
       </c>
       <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>-1100</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,25 +1189,25 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1184,38 +1218,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,37 +1262,40 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1266,37 +1306,40 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>-1200</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1307,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,37 +1438,40 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>-1200</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1430,37 +1482,40 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>-1200</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,25 +1717,25 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1676,37 +1746,40 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>-1200</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,37 +1834,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>-1200</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,31 +1965,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,32 +2051,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2011,13 +2107,13 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2025,8 +2121,8 @@
       <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>400</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2043,31 +2139,34 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2084,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,32 +2271,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2219,11 +2330,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2350,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2342,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2353,8 +2473,8 @@
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,20 +2674,20 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,8 +2703,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,20 +2718,20 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,16 +2791,19 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4300</v>
       </c>
       <c r="F61" s="3">
         <v>4300</v>
@@ -2669,14 +2812,14 @@
         <v>4300</v>
       </c>
       <c r="H61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I61" s="3">
         <v>3300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2715,8 +2861,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,8 +3011,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2865,23 +3023,23 @@
         <v>6100</v>
       </c>
       <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,37 +3562,40 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>-1200</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3437,13 +3636,13 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3457,8 +3656,8 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>200</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3741,17 +3962,17 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3764,8 +3985,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3864,17 +4094,17 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3884,8 +4114,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4320,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,37 +4408,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
